--- a/QuanLyThuVienHUFI/BLL_DAL/bin/Debug/PhieuMuon.xlsx
+++ b/QuanLyThuVienHUFI/BLL_DAL/bin/Debug/PhieuMuon.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevPrograms\DATN\ExcelReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODE\DoAnTotNghiep\HUFILibrary\QuanLyThuVienHUFI\BLL_DAL\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA578276-7387-4322-B6BC-57859955C038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="tailieu">Sheet1!$C$13:$M$14</definedName>
+    <definedName name="tailieu">Sheet1!$A$13:$J$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>TRƯỜNG ĐẠI HỌC CÔNG NGHIỆP THỰC PHẨM HCM</t>
   </si>
@@ -93,13 +94,19 @@
   </si>
   <si>
     <t>{nam}</t>
+  </si>
+  <si>
+    <t>Phí cọc:</t>
+  </si>
+  <si>
+    <t>{PhiCoc}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,12 +156,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -246,24 +247,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -272,54 +279,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,276 +622,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="3:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="D1" s="6"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="3:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="F4" s="13" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="7" spans="3:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="17" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="9" spans="3:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="17" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="3:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="15" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="15" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="15" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="19"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="3:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="16" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="16" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="16" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="3:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="16"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" spans="3:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="16"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="24"/>
-    </row>
-    <row r="18" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I20" s="2" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="10" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L20" t="s">
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="G20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N20" t="s">
+      <c r="H20" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="I20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P20" t="s">
+      <c r="J20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="K21" s="2" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I26" s="1" t="s">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="H17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="H11:K12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="C13:G14"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="I20:J20"/>
+  <mergeCells count="21">
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="H15:K16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="H13:K14"/>
-    <mergeCell ref="F4:J5"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E15:H16"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="E21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
